--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DIM.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DIM.XLSX
@@ -335,10 +335,10 @@
 DIMENSIONAL</t>
   </si>
   <si>
-    <t>RODOLFO LUIZ DE MATOS</t>
-  </si>
-  <si>
-    <t>Matr.: 3416</t>
+    <t>JOSÉ DE CASTRO DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>Matr.: 3345</t>
   </si>
   <si>
     <t>IQ_DIM</t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DIM.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DIM.XLSX
@@ -153,12 +153,6 @@
     <t>JOSE MAURO S. VERCOSA</t>
   </si>
   <si>
-    <t>ADALBERTO PESTANA GONCALVES</t>
-  </si>
-  <si>
-    <t>JOEL FELIPE</t>
-  </si>
-  <si>
     <t>JOSE LUIZ PEIXOTO VALERIO</t>
   </si>
   <si>
@@ -240,15 +234,15 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
     <t>1868</t>
   </si>
   <si>
-    <t>2179</t>
-  </si>
-  <si>
-    <t>2561</t>
-  </si>
-  <si>
     <t>2621</t>
   </si>
   <si>
@@ -280,6 +274,12 @@
   </si>
   <si>
     <t>3943</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DIM.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DIM.XLSX
@@ -180,9 +180,6 @@
     <t>FABIO REGO DA FONSECA</t>
   </si>
   <si>
-    <t>RODRIGO DA MOTA LEITE</t>
-  </si>
-  <si>
     <t>RAFAEL MATTOS ESCOBAR PINTO</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     <t> </t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>1868</t>
   </si>
   <si>
@@ -270,10 +270,10 @@
     <t>3399</t>
   </si>
   <si>
-    <t>3410</t>
-  </si>
-  <si>
     <t>3943</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
